--- a/src/main/resources/substituttlister/V11_kjoreramper.xlsx
+++ b/src/main/resources/substituttlister/V11_kjoreramper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhanhtuantran/dev/navikt/hm/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61864C04-36B7-794F-95C2-59E021540119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB520E-EAFE-7E47-8E07-401D61C6F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16560" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="375">
   <si>
     <t>Delkontrakt</t>
   </si>
@@ -1050,6 +1050,120 @@
   </si>
   <si>
     <t>123458</t>
+  </si>
+  <si>
+    <t>014112</t>
+  </si>
+  <si>
+    <t>014113</t>
+  </si>
+  <si>
+    <t>014114</t>
+  </si>
+  <si>
+    <t>014115</t>
+  </si>
+  <si>
+    <t>014116</t>
+  </si>
+  <si>
+    <t>014117</t>
+  </si>
+  <si>
+    <t>014118</t>
+  </si>
+  <si>
+    <t>014119</t>
+  </si>
+  <si>
+    <t>014120</t>
+  </si>
+  <si>
+    <t>014121</t>
+  </si>
+  <si>
+    <t>014122</t>
+  </si>
+  <si>
+    <t>014123</t>
+  </si>
+  <si>
+    <t>014124</t>
+  </si>
+  <si>
+    <t>014125</t>
+  </si>
+  <si>
+    <t>014126</t>
+  </si>
+  <si>
+    <t>014185</t>
+  </si>
+  <si>
+    <t>014186</t>
+  </si>
+  <si>
+    <t>014187</t>
+  </si>
+  <si>
+    <t>059604</t>
+  </si>
+  <si>
+    <t>059595</t>
+  </si>
+  <si>
+    <t>055929</t>
+  </si>
+  <si>
+    <t>014051</t>
+  </si>
+  <si>
+    <t>014039</t>
+  </si>
+  <si>
+    <t>014097</t>
+  </si>
+  <si>
+    <t>014053</t>
+  </si>
+  <si>
+    <t>014041</t>
+  </si>
+  <si>
+    <t>040114</t>
+  </si>
+  <si>
+    <t>048622</t>
+  </si>
+  <si>
+    <t>092452</t>
+  </si>
+  <si>
+    <t>014098</t>
+  </si>
+  <si>
+    <t>014054</t>
+  </si>
+  <si>
+    <t>014042</t>
+  </si>
+  <si>
+    <t>087880</t>
+  </si>
+  <si>
+    <t>014067</t>
+  </si>
+  <si>
+    <t>039848</t>
+  </si>
+  <si>
+    <t>014099</t>
+  </si>
+  <si>
+    <t>014055</t>
+  </si>
+  <si>
+    <t>014043</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1237,9 +1351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,6 +1363,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2568,16 +2694,16 @@
   <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="73.83203125" customWidth="1"/>
     <col min="3" max="3" width="85.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="38" customWidth="1"/>
     <col min="5" max="5" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2591,13 +2717,13 @@
       <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
@@ -2609,11 +2735,11 @@
       <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27">
-        <v>14112</v>
+      <c r="D2" s="35" t="s">
+        <v>337</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
@@ -2621,21 +2747,21 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="35">
         <v>170092</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="24"/>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
@@ -2647,19 +2773,19 @@
       <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27">
-        <v>14113</v>
+      <c r="D5" s="35" t="s">
+        <v>338</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="23"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
@@ -2671,19 +2797,19 @@
       <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27">
-        <v>14114</v>
+      <c r="D7" s="35" t="s">
+        <v>339</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="23"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
@@ -2695,19 +2821,19 @@
       <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="27">
-        <v>14115</v>
+      <c r="D9" s="35" t="s">
+        <v>340</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="23"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
@@ -2719,19 +2845,19 @@
       <c r="C11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27">
-        <v>14116</v>
+      <c r="D11" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="23"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
@@ -2743,11 +2869,11 @@
       <c r="C13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="27">
-        <v>14117</v>
+      <c r="D13" s="35" t="s">
+        <v>342</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
@@ -2755,21 +2881,21 @@
       <c r="C14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="35">
         <v>170091</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
-      <c r="G15" s="33"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
@@ -2781,11 +2907,11 @@
       <c r="C16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="27">
-        <v>14118</v>
+      <c r="D16" s="35" t="s">
+        <v>343</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -2793,21 +2919,21 @@
       <c r="C17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="35">
         <v>170090</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
@@ -2819,19 +2945,19 @@
       <c r="C19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="27">
-        <v>14119</v>
+      <c r="D19" s="35" t="s">
+        <v>344</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
@@ -2843,19 +2969,19 @@
       <c r="C21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="27">
-        <v>14120</v>
+      <c r="D21" s="35" t="s">
+        <v>345</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="G21" s="33"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
@@ -2867,19 +2993,19 @@
       <c r="C23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="27">
-        <v>14121</v>
+      <c r="D23" s="35" t="s">
+        <v>346</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="G23" s="34"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="24"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
@@ -2891,19 +3017,19 @@
       <c r="C25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="27">
-        <v>14122</v>
+      <c r="D25" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="G25" s="34"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="24"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
@@ -2915,19 +3041,19 @@
       <c r="C27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="27">
-        <v>14123</v>
+      <c r="D27" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="24"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
@@ -2939,11 +3065,11 @@
       <c r="C29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="27">
-        <v>14124</v>
+      <c r="D29" s="35" t="s">
+        <v>349</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
@@ -2951,21 +3077,21 @@
       <c r="C30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="35">
         <v>170089</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="24"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
@@ -2977,19 +3103,19 @@
       <c r="C32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="27">
-        <v>14125</v>
+      <c r="D32" s="35" t="s">
+        <v>350</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="24"/>
-      <c r="G33" s="34"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
@@ -3001,11 +3127,11 @@
       <c r="C34" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="27">
-        <v>14126</v>
+      <c r="D34" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
@@ -3013,21 +3139,21 @@
       <c r="C35" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="35">
         <v>170088</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="24"/>
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
@@ -3039,11 +3165,11 @@
       <c r="C37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="27">
-        <v>14185</v>
+      <c r="D37" s="35" t="s">
+        <v>352</v>
       </c>
       <c r="E37" s="24"/>
-      <c r="G37" s="34"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
@@ -3051,21 +3177,21 @@
       <c r="C38" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="35">
         <v>170093</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="24"/>
-      <c r="G39" s="34"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
@@ -3077,19 +3203,19 @@
       <c r="C40" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="27">
-        <v>14186</v>
+      <c r="D40" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="G40" s="34"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="27"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="24"/>
-      <c r="G41" s="34"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
@@ -3101,19 +3227,19 @@
       <c r="C42" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="27">
-        <v>14187</v>
+      <c r="D42" s="35" t="s">
+        <v>354</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="27"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="24"/>
-      <c r="G43" s="34"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
@@ -3125,11 +3251,11 @@
       <c r="C44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="35">
         <v>143234</v>
       </c>
       <c r="E44" s="24"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
@@ -3137,21 +3263,21 @@
       <c r="C45" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="35">
         <v>170087</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="34"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="24"/>
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
@@ -3163,19 +3289,19 @@
       <c r="C47" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="35">
         <v>143235</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="G47" s="34"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
-      <c r="D48" s="27"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="24"/>
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
@@ -3187,19 +3313,19 @@
       <c r="C49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="35">
         <v>143236</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="G49" s="34"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="27"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="24"/>
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
@@ -3211,19 +3337,19 @@
       <c r="C51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="35">
         <v>143237</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="G51" s="34"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="27"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="24"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
@@ -3235,19 +3361,19 @@
       <c r="C53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="35">
         <v>143238</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="G53" s="34"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
-      <c r="D54" s="27"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="24"/>
-      <c r="G54" s="34"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
@@ -3259,19 +3385,19 @@
       <c r="C55" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="35">
         <v>143239</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="G55" s="34"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="27"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="24"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
@@ -3283,19 +3409,19 @@
       <c r="C57" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="35">
         <v>143240</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="G57" s="34"/>
+      <c r="G57" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
-      <c r="D58" s="27"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="24"/>
-      <c r="G58" s="34"/>
+      <c r="G58" s="33"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
@@ -3307,19 +3433,19 @@
       <c r="C59" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="35">
         <v>143241</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="G59" s="34"/>
+      <c r="G59" s="33"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
-      <c r="D60" s="27"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="24"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
@@ -3331,19 +3457,19 @@
       <c r="C61" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="35">
         <v>143242</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="G61" s="34"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="26"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="23"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="32"/>
     </row>
     <row r="63" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
@@ -3355,13 +3481,13 @@
       <c r="C63" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="35">
         <v>243518</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="33"/>
+      <c r="G63" s="32"/>
     </row>
     <row r="64" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
@@ -3369,21 +3495,21 @@
       <c r="C64" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="35">
         <v>170093</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G64" s="33"/>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="27"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="24"/>
-      <c r="G65" s="33"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
@@ -3395,13 +3521,13 @@
       <c r="C66" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="35">
         <v>243514</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="33"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
@@ -3409,21 +3535,21 @@
       <c r="C67" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="35">
         <v>170090</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="33"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="27"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="24"/>
-      <c r="G68" s="33"/>
+      <c r="G68" s="32"/>
     </row>
     <row r="69" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
@@ -3435,13 +3561,13 @@
       <c r="C69" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="35">
         <v>243522</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="33"/>
+      <c r="G69" s="32"/>
     </row>
     <row r="70" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
@@ -3449,21 +3575,21 @@
       <c r="C70" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="35">
         <v>170087</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G70" s="33"/>
+      <c r="G70" s="32"/>
     </row>
     <row r="71" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="27"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="24"/>
-      <c r="G71" s="33"/>
+      <c r="G71" s="32"/>
     </row>
     <row r="72" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
@@ -3475,13 +3601,13 @@
       <c r="C72" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="35">
         <v>243515</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="33"/>
+      <c r="G72" s="32"/>
     </row>
     <row r="73" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
@@ -3489,21 +3615,21 @@
       <c r="C73" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="35">
         <v>170089</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="33"/>
+      <c r="G73" s="32"/>
     </row>
     <row r="74" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="27"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="24"/>
-      <c r="G74" s="33"/>
+      <c r="G74" s="32"/>
     </row>
     <row r="75" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
@@ -3515,13 +3641,13 @@
       <c r="C75" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="35">
         <v>243519</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="33"/>
+      <c r="G75" s="32"/>
     </row>
     <row r="76" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
@@ -3529,21 +3655,21 @@
       <c r="C76" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="35">
         <v>170090</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G76" s="33"/>
+      <c r="G76" s="32"/>
     </row>
     <row r="77" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="27"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="24"/>
-      <c r="G77" s="33"/>
+      <c r="G77" s="32"/>
     </row>
     <row r="78" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
@@ -3555,13 +3681,13 @@
       <c r="C78" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="35">
         <v>243517</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G78" s="33"/>
+      <c r="G78" s="32"/>
     </row>
     <row r="79" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
@@ -3569,21 +3695,21 @@
       <c r="C79" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="35">
         <v>170087</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G79" s="33"/>
+      <c r="G79" s="32"/>
     </row>
     <row r="80" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
-      <c r="D80" s="27"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="24"/>
-      <c r="G80" s="33"/>
+      <c r="G80" s="32"/>
     </row>
     <row r="81" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27">
@@ -3595,13 +3721,13 @@
       <c r="C81" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="35">
         <v>243521</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="33"/>
+      <c r="G81" s="32"/>
     </row>
     <row r="82" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
@@ -3609,21 +3735,21 @@
       <c r="C82" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="35">
         <v>170088</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G82" s="33"/>
+      <c r="G82" s="32"/>
     </row>
     <row r="83" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
-      <c r="D83" s="27"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="24"/>
-      <c r="G83" s="33"/>
+      <c r="G83" s="32"/>
     </row>
     <row r="84" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
@@ -3635,13 +3761,13 @@
       <c r="C84" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="35">
         <v>243513</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G84" s="33"/>
+      <c r="G84" s="32"/>
     </row>
     <row r="85" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
@@ -3649,21 +3775,21 @@
       <c r="C85" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85" s="35">
         <v>170093</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="33"/>
+      <c r="G85" s="32"/>
     </row>
     <row r="86" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
-      <c r="D86" s="27"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="24"/>
-      <c r="G86" s="33"/>
+      <c r="G86" s="32"/>
     </row>
     <row r="87" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
@@ -3675,13 +3801,13 @@
       <c r="C87" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="35">
         <v>243516</v>
       </c>
       <c r="E87" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="33"/>
+      <c r="G87" s="32"/>
     </row>
     <row r="88" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
@@ -3689,21 +3815,21 @@
       <c r="C88" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="35">
         <v>170088</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G88" s="33"/>
+      <c r="G88" s="32"/>
     </row>
     <row r="89" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
-      <c r="D89" s="27"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="24"/>
-      <c r="G89" s="33"/>
+      <c r="G89" s="32"/>
     </row>
     <row r="90" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
@@ -3715,13 +3841,13 @@
       <c r="C90" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="35">
         <v>243520</v>
       </c>
       <c r="E90" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="33"/>
+      <c r="G90" s="32"/>
     </row>
     <row r="91" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
@@ -3729,21 +3855,21 @@
       <c r="C91" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="35">
         <v>170089</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G91" s="33"/>
+      <c r="G91" s="32"/>
     </row>
     <row r="92" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
-      <c r="D92" s="27"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="24"/>
-      <c r="G92" s="33"/>
+      <c r="G92" s="32"/>
     </row>
     <row r="93" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
@@ -3755,13 +3881,13 @@
       <c r="C93" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="35">
         <v>243526</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="33"/>
+      <c r="G93" s="32"/>
     </row>
     <row r="94" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
@@ -3769,21 +3895,21 @@
       <c r="C94" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="35">
         <v>170088</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G94" s="33"/>
+      <c r="G94" s="32"/>
     </row>
     <row r="95" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
-      <c r="D95" s="27"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="24"/>
-      <c r="G95" s="33"/>
+      <c r="G95" s="32"/>
     </row>
     <row r="96" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
@@ -3795,13 +3921,13 @@
       <c r="C96" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96" s="35">
         <v>243528</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G96" s="33"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
@@ -3809,21 +3935,21 @@
       <c r="C97" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="35">
         <v>170089</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G97" s="33"/>
+      <c r="G97" s="32"/>
     </row>
     <row r="98" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
-      <c r="D98" s="27"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="24"/>
-      <c r="G98" s="33"/>
+      <c r="G98" s="32"/>
     </row>
     <row r="99" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
@@ -3835,13 +3961,13 @@
       <c r="C99" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="35">
         <v>243531</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="32"/>
     </row>
     <row r="100" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
@@ -3849,21 +3975,21 @@
       <c r="C100" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="35">
         <v>170088</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G100" s="33"/>
+      <c r="G100" s="32"/>
     </row>
     <row r="101" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
-      <c r="D101" s="27"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="24"/>
-      <c r="G101" s="33"/>
+      <c r="G101" s="32"/>
     </row>
     <row r="102" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
@@ -3875,13 +4001,13 @@
       <c r="C102" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102" s="35">
         <v>243529</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G102" s="33"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
@@ -3889,21 +4015,21 @@
       <c r="C103" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103" s="35">
         <v>170090</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G103" s="33"/>
+      <c r="G103" s="32"/>
     </row>
     <row r="104" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
-      <c r="D104" s="27"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="24"/>
-      <c r="G104" s="33"/>
+      <c r="G104" s="32"/>
     </row>
     <row r="105" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
@@ -3915,13 +4041,13 @@
       <c r="C105" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D105" s="27">
+      <c r="D105" s="35">
         <v>243532</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G105" s="33"/>
+      <c r="G105" s="32"/>
     </row>
     <row r="106" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
@@ -3929,21 +4055,21 @@
       <c r="C106" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106" s="35">
         <v>170087</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="33"/>
+      <c r="G106" s="32"/>
     </row>
     <row r="107" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
-      <c r="D107" s="27"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="24"/>
-      <c r="G107" s="33"/>
+      <c r="G107" s="32"/>
     </row>
     <row r="108" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
@@ -3955,13 +4081,13 @@
       <c r="C108" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108" s="35">
         <v>243524</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G108" s="33"/>
+      <c r="G108" s="32"/>
     </row>
     <row r="109" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
@@ -3969,21 +4095,21 @@
       <c r="C109" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="35">
         <v>170090</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G109" s="33"/>
+      <c r="G109" s="32"/>
     </row>
     <row r="110" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
-      <c r="D110" s="27"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="24"/>
-      <c r="G110" s="33"/>
+      <c r="G110" s="32"/>
     </row>
     <row r="111" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
@@ -3995,13 +4121,13 @@
       <c r="C111" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111" s="35">
         <v>243523</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G111" s="33"/>
+      <c r="G111" s="32"/>
     </row>
     <row r="112" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
@@ -4009,21 +4135,21 @@
       <c r="C112" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112" s="35">
         <v>170093</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G112" s="33"/>
+      <c r="G112" s="32"/>
     </row>
     <row r="113" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="27"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="24"/>
-      <c r="G113" s="33"/>
+      <c r="G113" s="32"/>
     </row>
     <row r="114" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27">
@@ -4035,13 +4161,13 @@
       <c r="C114" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D114" s="27">
+      <c r="D114" s="35">
         <v>243527</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G114" s="33"/>
+      <c r="G114" s="32"/>
     </row>
     <row r="115" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
@@ -4049,21 +4175,21 @@
       <c r="C115" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D115" s="27">
+      <c r="D115" s="35">
         <v>170087</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G115" s="33"/>
+      <c r="G115" s="32"/>
     </row>
     <row r="116" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="27"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="24"/>
-      <c r="G116" s="33"/>
+      <c r="G116" s="32"/>
     </row>
     <row r="117" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27">
@@ -4075,13 +4201,13 @@
       <c r="C117" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="27">
+      <c r="D117" s="35">
         <v>243530</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G117" s="33"/>
+      <c r="G117" s="32"/>
     </row>
     <row r="118" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
@@ -4089,21 +4215,21 @@
       <c r="C118" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D118" s="27">
+      <c r="D118" s="35">
         <v>170089</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G118" s="33"/>
+      <c r="G118" s="32"/>
     </row>
     <row r="119" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="27"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="24"/>
-      <c r="G119" s="33"/>
+      <c r="G119" s="32"/>
     </row>
     <row r="120" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27">
@@ -4115,13 +4241,13 @@
       <c r="C120" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D120" s="27">
+      <c r="D120" s="35">
         <v>243525</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G120" s="33"/>
+      <c r="G120" s="32"/>
     </row>
     <row r="121" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
@@ -4129,21 +4255,21 @@
       <c r="C121" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D121" s="27">
+      <c r="D121" s="35">
         <v>170089</v>
       </c>
       <c r="E121" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="32"/>
     </row>
     <row r="122" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="27"/>
+      <c r="D122" s="35"/>
       <c r="E122" s="24"/>
-      <c r="G122" s="33"/>
+      <c r="G122" s="32"/>
     </row>
     <row r="123" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27">
@@ -4155,14 +4281,14 @@
       <c r="C123" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="27">
+      <c r="D123" s="35">
         <v>243555</v>
       </c>
       <c r="E123" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F123"/>
-      <c r="G123" s="33"/>
+      <c r="G123" s="32"/>
     </row>
     <row r="124" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
@@ -4170,14 +4296,14 @@
       <c r="C124" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="27">
+      <c r="D124" s="35">
         <v>243554</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F124"/>
-      <c r="G124" s="33"/>
+      <c r="G124" s="32"/>
     </row>
     <row r="125" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
@@ -4185,23 +4311,23 @@
       <c r="C125" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="27">
+      <c r="D125" s="35">
         <v>243556</v>
       </c>
       <c r="E125" s="24" t="s">
         <v>91</v>
       </c>
       <c r="F125"/>
-      <c r="G125" s="33"/>
+      <c r="G125" s="32"/>
     </row>
     <row r="126" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="27"/>
+      <c r="D126" s="35"/>
       <c r="E126" s="24"/>
       <c r="F126"/>
-      <c r="G126" s="33"/>
+      <c r="G126" s="32"/>
     </row>
     <row r="127" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27">
@@ -4213,14 +4339,14 @@
       <c r="C127" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D127" s="27">
+      <c r="D127" s="35">
         <v>146721</v>
       </c>
       <c r="E127" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F127"/>
-      <c r="G127" s="33"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
@@ -4228,23 +4354,23 @@
       <c r="C128" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="27">
+      <c r="D128" s="35">
         <v>146720</v>
       </c>
       <c r="E128" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F128"/>
-      <c r="G128" s="33"/>
+      <c r="G128" s="32"/>
     </row>
     <row r="129" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="27"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="24"/>
       <c r="F129"/>
-      <c r="G129" s="33"/>
+      <c r="G129" s="32"/>
     </row>
     <row r="130" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27">
@@ -4256,14 +4382,14 @@
       <c r="C130" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D130" s="27">
+      <c r="D130" s="35">
         <v>243549</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>97</v>
       </c>
       <c r="F130"/>
-      <c r="G130" s="33"/>
+      <c r="G130" s="32"/>
     </row>
     <row r="131" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
@@ -4271,23 +4397,23 @@
       <c r="C131" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D131" s="27">
+      <c r="D131" s="35">
         <v>243548</v>
       </c>
       <c r="E131" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F131"/>
-      <c r="G131" s="33"/>
+      <c r="G131" s="32"/>
     </row>
     <row r="132" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
-      <c r="D132" s="27"/>
+      <c r="D132" s="35"/>
       <c r="E132" s="24"/>
       <c r="F132"/>
-      <c r="G132" s="33"/>
+      <c r="G132" s="32"/>
     </row>
     <row r="133" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
@@ -4299,14 +4425,14 @@
       <c r="C133" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D133" s="27">
+      <c r="D133" s="35">
         <v>243552</v>
       </c>
       <c r="E133" s="24" t="s">
         <v>101</v>
       </c>
       <c r="F133"/>
-      <c r="G133" s="33"/>
+      <c r="G133" s="32"/>
     </row>
     <row r="134" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
@@ -4314,14 +4440,14 @@
       <c r="C134" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="35">
         <v>243553</v>
       </c>
       <c r="E134" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F134"/>
-      <c r="G134" s="33"/>
+      <c r="G134" s="32"/>
     </row>
     <row r="135" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
@@ -4329,23 +4455,23 @@
       <c r="C135" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D135" s="27">
+      <c r="D135" s="35">
         <v>243551</v>
       </c>
       <c r="E135" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F135"/>
-      <c r="G135" s="33"/>
+      <c r="G135" s="32"/>
     </row>
     <row r="136" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="27"/>
+      <c r="D136" s="35"/>
       <c r="E136" s="24"/>
       <c r="F136"/>
-      <c r="G136" s="33"/>
+      <c r="G136" s="32"/>
     </row>
     <row r="137" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27">
@@ -4357,14 +4483,14 @@
       <c r="C137" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="27">
+      <c r="D137" s="35">
         <v>243556</v>
       </c>
       <c r="E137" s="24" t="s">
         <v>106</v>
       </c>
       <c r="F137"/>
-      <c r="G137" s="33"/>
+      <c r="G137" s="32"/>
     </row>
     <row r="138" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
@@ -4372,23 +4498,23 @@
       <c r="C138" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D138" s="27">
+      <c r="D138" s="35">
         <v>243555</v>
       </c>
       <c r="E138" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F138"/>
-      <c r="G138" s="33"/>
+      <c r="G138" s="32"/>
     </row>
     <row r="139" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
-      <c r="D139" s="27"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="24"/>
       <c r="F139"/>
-      <c r="G139" s="33"/>
+      <c r="G139" s="32"/>
     </row>
     <row r="140" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27">
@@ -4400,14 +4526,14 @@
       <c r="C140" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D140" s="27">
+      <c r="D140" s="35">
         <v>146715</v>
       </c>
       <c r="E140" s="24" t="s">
         <v>108</v>
       </c>
       <c r="F140"/>
-      <c r="G140" s="33"/>
+      <c r="G140" s="32"/>
     </row>
     <row r="141" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
@@ -4415,23 +4541,23 @@
       <c r="C141" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D141" s="27">
+      <c r="D141" s="35">
         <v>146716</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>110</v>
       </c>
       <c r="F141"/>
-      <c r="G141" s="33"/>
+      <c r="G141" s="32"/>
     </row>
     <row r="142" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
-      <c r="D142" s="27"/>
+      <c r="D142" s="35"/>
       <c r="E142" s="24"/>
       <c r="F142"/>
-      <c r="G142" s="33"/>
+      <c r="G142" s="32"/>
     </row>
     <row r="143" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27">
@@ -4443,14 +4569,14 @@
       <c r="C143" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D143" s="27">
+      <c r="D143" s="35">
         <v>243547</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F143"/>
-      <c r="G143" s="33"/>
+      <c r="G143" s="32"/>
     </row>
     <row r="144" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
@@ -4458,14 +4584,14 @@
       <c r="C144" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D144" s="27">
+      <c r="D144" s="35">
         <v>243546</v>
       </c>
       <c r="E144" s="24" t="s">
         <v>114</v>
       </c>
       <c r="F144"/>
-      <c r="G144" s="33"/>
+      <c r="G144" s="32"/>
     </row>
     <row r="145" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
@@ -4473,23 +4599,23 @@
       <c r="C145" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D145" s="27">
+      <c r="D145" s="35">
         <v>243548</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F145"/>
-      <c r="G145" s="33"/>
+      <c r="G145" s="32"/>
     </row>
     <row r="146" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
-      <c r="D146" s="27"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="24"/>
       <c r="F146"/>
-      <c r="G146" s="33"/>
+      <c r="G146" s="32"/>
     </row>
     <row r="147" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27">
@@ -4501,14 +4627,14 @@
       <c r="C147" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D147" s="27">
+      <c r="D147" s="35">
         <v>243545</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>116</v>
       </c>
       <c r="F147"/>
-      <c r="G147" s="33"/>
+      <c r="G147" s="32"/>
     </row>
     <row r="148" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
@@ -4516,14 +4642,14 @@
       <c r="C148" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D148" s="27">
+      <c r="D148" s="35">
         <v>243546</v>
       </c>
       <c r="E148" s="24" t="s">
         <v>117</v>
       </c>
       <c r="F148"/>
-      <c r="G148" s="33"/>
+      <c r="G148" s="32"/>
     </row>
     <row r="149" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
@@ -4531,23 +4657,23 @@
       <c r="C149" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D149" s="27">
+      <c r="D149" s="35">
         <v>243544</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F149"/>
-      <c r="G149" s="33"/>
+      <c r="G149" s="32"/>
     </row>
     <row r="150" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="27"/>
+      <c r="D150" s="35"/>
       <c r="E150" s="24"/>
       <c r="F150"/>
-      <c r="G150" s="33"/>
+      <c r="G150" s="32"/>
     </row>
     <row r="151" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27">
@@ -4559,14 +4685,14 @@
       <c r="C151" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="27">
+      <c r="D151" s="35">
         <v>146720</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>120</v>
       </c>
       <c r="F151"/>
-      <c r="G151" s="33"/>
+      <c r="G151" s="32"/>
     </row>
     <row r="152" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
@@ -4574,14 +4700,14 @@
       <c r="C152" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D152" s="27">
+      <c r="D152" s="35">
         <v>146719</v>
       </c>
       <c r="E152" s="24" t="s">
         <v>122</v>
       </c>
       <c r="F152"/>
-      <c r="G152" s="33"/>
+      <c r="G152" s="32"/>
     </row>
     <row r="153" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
@@ -4589,23 +4715,23 @@
       <c r="C153" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D153" s="27">
+      <c r="D153" s="35">
         <v>146721</v>
       </c>
       <c r="E153" s="24" t="s">
         <v>123</v>
       </c>
       <c r="F153"/>
-      <c r="G153" s="33"/>
+      <c r="G153" s="32"/>
     </row>
     <row r="154" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="27"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="24"/>
       <c r="F154"/>
-      <c r="G154" s="33"/>
+      <c r="G154" s="32"/>
     </row>
     <row r="155" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27">
@@ -4617,14 +4743,14 @@
       <c r="C155" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="27">
+      <c r="D155" s="35">
         <v>243551</v>
       </c>
       <c r="E155" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F155"/>
-      <c r="G155" s="33"/>
+      <c r="G155" s="32"/>
     </row>
     <row r="156" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
@@ -4632,14 +4758,14 @@
       <c r="C156" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D156" s="27">
+      <c r="D156" s="35">
         <v>243550</v>
       </c>
       <c r="E156" s="24" t="s">
         <v>125</v>
       </c>
       <c r="F156"/>
-      <c r="G156" s="33"/>
+      <c r="G156" s="32"/>
     </row>
     <row r="157" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
@@ -4647,23 +4773,23 @@
       <c r="C157" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D157" s="27">
+      <c r="D157" s="35">
         <v>243552</v>
       </c>
       <c r="E157" s="24" t="s">
         <v>101</v>
       </c>
       <c r="F157"/>
-      <c r="G157" s="33"/>
+      <c r="G157" s="32"/>
     </row>
     <row r="158" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24"/>
-      <c r="D158" s="27"/>
+      <c r="D158" s="35"/>
       <c r="E158" s="24"/>
       <c r="F158"/>
-      <c r="G158" s="33"/>
+      <c r="G158" s="32"/>
     </row>
     <row r="159" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27">
@@ -4675,14 +4801,14 @@
       <c r="C159" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D159" s="27">
+      <c r="D159" s="35">
         <v>243546</v>
       </c>
       <c r="E159" s="24" t="s">
         <v>117</v>
       </c>
       <c r="F159"/>
-      <c r="G159" s="33"/>
+      <c r="G159" s="32"/>
     </row>
     <row r="160" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
@@ -4690,14 +4816,14 @@
       <c r="C160" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D160" s="27">
+      <c r="D160" s="35">
         <v>243545</v>
       </c>
       <c r="E160" s="24" t="s">
         <v>116</v>
       </c>
       <c r="F160"/>
-      <c r="G160" s="33"/>
+      <c r="G160" s="32"/>
     </row>
     <row r="161" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
@@ -4705,23 +4831,23 @@
       <c r="C161" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D161" s="27">
+      <c r="D161" s="35">
         <v>243547</v>
       </c>
       <c r="E161" s="24" t="s">
         <v>126</v>
       </c>
       <c r="F161"/>
-      <c r="G161" s="33"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="24"/>
       <c r="C162" s="24"/>
-      <c r="D162" s="27"/>
+      <c r="D162" s="35"/>
       <c r="E162" s="24"/>
       <c r="F162"/>
-      <c r="G162" s="33"/>
+      <c r="G162" s="32"/>
     </row>
     <row r="163" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27">
@@ -4733,14 +4859,14 @@
       <c r="C163" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D163" s="27">
+      <c r="D163" s="35">
         <v>243543</v>
       </c>
       <c r="E163" s="24" t="s">
         <v>128</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="33"/>
+      <c r="G163" s="32"/>
     </row>
     <row r="164" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
@@ -4748,23 +4874,23 @@
       <c r="C164" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D164" s="27">
+      <c r="D164" s="35">
         <v>243544</v>
       </c>
       <c r="E164" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F164"/>
-      <c r="G164" s="33"/>
+      <c r="G164" s="32"/>
     </row>
     <row r="165" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="24"/>
       <c r="C165" s="24"/>
-      <c r="D165" s="27"/>
+      <c r="D165" s="35"/>
       <c r="E165" s="24"/>
       <c r="F165"/>
-      <c r="G165" s="33"/>
+      <c r="G165" s="32"/>
     </row>
     <row r="166" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="27">
@@ -4776,14 +4902,14 @@
       <c r="C166" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D166" s="27">
+      <c r="D166" s="35">
         <v>243550</v>
       </c>
       <c r="E166" s="24" t="s">
         <v>125</v>
       </c>
       <c r="F166"/>
-      <c r="G166" s="33"/>
+      <c r="G166" s="32"/>
     </row>
     <row r="167" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
@@ -4791,23 +4917,23 @@
       <c r="C167" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D167" s="27">
+      <c r="D167" s="35">
         <v>243551</v>
       </c>
       <c r="E167" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="33"/>
+      <c r="G167" s="32"/>
     </row>
     <row r="168" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
-      <c r="D168" s="27"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="24"/>
       <c r="F168"/>
-      <c r="G168" s="33"/>
+      <c r="G168" s="32"/>
     </row>
     <row r="169" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27">
@@ -4819,14 +4945,14 @@
       <c r="C169" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D169" s="27">
+      <c r="D169" s="35">
         <v>243553</v>
       </c>
       <c r="E169" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="33"/>
+      <c r="G169" s="32"/>
     </row>
     <row r="170" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
@@ -4834,14 +4960,14 @@
       <c r="C170" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D170" s="27">
+      <c r="D170" s="35">
         <v>243552</v>
       </c>
       <c r="E170" s="24" t="s">
         <v>101</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="33"/>
+      <c r="G170" s="32"/>
     </row>
     <row r="171" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
@@ -4849,23 +4975,23 @@
       <c r="C171" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D171" s="27">
+      <c r="D171" s="35">
         <v>243554</v>
       </c>
       <c r="E171" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F171"/>
-      <c r="G171" s="33"/>
+      <c r="G171" s="32"/>
     </row>
     <row r="172" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
-      <c r="D172" s="27"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="24"/>
       <c r="F172"/>
-      <c r="G172" s="33"/>
+      <c r="G172" s="32"/>
     </row>
     <row r="173" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="27">
@@ -4877,14 +5003,14 @@
       <c r="C173" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="27">
+      <c r="D173" s="35">
         <v>243554</v>
       </c>
       <c r="E173" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F173"/>
-      <c r="G173" s="33"/>
+      <c r="G173" s="32"/>
     </row>
     <row r="174" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
@@ -4892,14 +5018,14 @@
       <c r="C174" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D174" s="27">
+      <c r="D174" s="35">
         <v>243553</v>
       </c>
       <c r="E174" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F174"/>
-      <c r="G174" s="33"/>
+      <c r="G174" s="32"/>
     </row>
     <row r="175" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
@@ -4907,23 +5033,23 @@
       <c r="C175" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D175" s="27">
+      <c r="D175" s="35">
         <v>243555</v>
       </c>
       <c r="E175" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F175"/>
-      <c r="G175" s="33"/>
+      <c r="G175" s="32"/>
     </row>
     <row r="176" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="24"/>
       <c r="C176" s="24"/>
-      <c r="D176" s="27"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="24"/>
       <c r="F176"/>
-      <c r="G176" s="33"/>
+      <c r="G176" s="32"/>
     </row>
     <row r="177" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27">
@@ -4935,14 +5061,14 @@
       <c r="C177" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D177" s="27">
+      <c r="D177" s="35">
         <v>146718</v>
       </c>
       <c r="E177" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F177"/>
-      <c r="G177" s="33"/>
+      <c r="G177" s="32"/>
     </row>
     <row r="178" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
@@ -4950,14 +5076,14 @@
       <c r="C178" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D178" s="27">
+      <c r="D178" s="35">
         <v>146717</v>
       </c>
       <c r="E178" s="24" t="s">
         <v>132</v>
       </c>
       <c r="F178"/>
-      <c r="G178" s="33"/>
+      <c r="G178" s="32"/>
     </row>
     <row r="179" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
@@ -4965,23 +5091,23 @@
       <c r="C179" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D179" s="27">
+      <c r="D179" s="35">
         <v>146719</v>
       </c>
       <c r="E179" s="24" t="s">
         <v>133</v>
       </c>
       <c r="F179"/>
-      <c r="G179" s="33"/>
+      <c r="G179" s="32"/>
     </row>
     <row r="180" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
-      <c r="D180" s="27"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="24"/>
       <c r="F180"/>
-      <c r="G180" s="33"/>
+      <c r="G180" s="32"/>
     </row>
     <row r="181" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27">
@@ -4993,14 +5119,14 @@
       <c r="C181" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D181" s="27">
+      <c r="D181" s="35">
         <v>243544</v>
       </c>
       <c r="E181" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F181"/>
-      <c r="G181" s="33"/>
+      <c r="G181" s="32"/>
     </row>
     <row r="182" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
@@ -5008,14 +5134,14 @@
       <c r="C182" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D182" s="27">
+      <c r="D182" s="35">
         <v>243543</v>
       </c>
       <c r="E182" s="24" t="s">
         <v>128</v>
       </c>
       <c r="F182"/>
-      <c r="G182" s="33"/>
+      <c r="G182" s="32"/>
     </row>
     <row r="183" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
@@ -5023,23 +5149,23 @@
       <c r="C183" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D183" s="27">
+      <c r="D183" s="35">
         <v>243545</v>
       </c>
       <c r="E183" s="24" t="s">
         <v>116</v>
       </c>
       <c r="F183"/>
-      <c r="G183" s="33"/>
+      <c r="G183" s="32"/>
     </row>
     <row r="184" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="24"/>
       <c r="C184" s="24"/>
-      <c r="D184" s="27"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="24"/>
       <c r="F184"/>
-      <c r="G184" s="33"/>
+      <c r="G184" s="32"/>
     </row>
     <row r="185" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27">
@@ -5051,14 +5177,14 @@
       <c r="C185" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D185" s="27">
+      <c r="D185" s="35">
         <v>146716</v>
       </c>
       <c r="E185" s="24" t="s">
         <v>110</v>
       </c>
       <c r="F185"/>
-      <c r="G185" s="33"/>
+      <c r="G185" s="32"/>
     </row>
     <row r="186" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
@@ -5066,14 +5192,14 @@
       <c r="C186" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D186" s="27">
+      <c r="D186" s="35">
         <v>146715</v>
       </c>
       <c r="E186" s="24" t="s">
         <v>108</v>
       </c>
       <c r="F186"/>
-      <c r="G186" s="33"/>
+      <c r="G186" s="32"/>
     </row>
     <row r="187" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
@@ -5081,23 +5207,23 @@
       <c r="C187" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D187" s="27">
+      <c r="D187" s="35">
         <v>146717</v>
       </c>
       <c r="E187" s="24" t="s">
         <v>132</v>
       </c>
       <c r="F187"/>
-      <c r="G187" s="33"/>
+      <c r="G187" s="32"/>
     </row>
     <row r="188" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
-      <c r="D188" s="27"/>
+      <c r="D188" s="35"/>
       <c r="E188" s="24"/>
       <c r="F188"/>
-      <c r="G188" s="33"/>
+      <c r="G188" s="32"/>
     </row>
     <row r="189" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="27">
@@ -5109,14 +5235,14 @@
       <c r="C189" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D189" s="27">
+      <c r="D189" s="35">
         <v>243548</v>
       </c>
       <c r="E189" s="24" t="s">
         <v>134</v>
       </c>
       <c r="F189"/>
-      <c r="G189" s="33"/>
+      <c r="G189" s="32"/>
     </row>
     <row r="190" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
@@ -5124,14 +5250,14 @@
       <c r="C190" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D190" s="27">
+      <c r="D190" s="35">
         <v>243547</v>
       </c>
       <c r="E190" s="24" t="s">
         <v>126</v>
       </c>
       <c r="F190"/>
-      <c r="G190" s="33"/>
+      <c r="G190" s="32"/>
     </row>
     <row r="191" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
@@ -5139,23 +5265,23 @@
       <c r="C191" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D191" s="27">
+      <c r="D191" s="35">
         <v>243549</v>
       </c>
       <c r="E191" s="24" t="s">
         <v>135</v>
       </c>
       <c r="F191"/>
-      <c r="G191" s="33"/>
+      <c r="G191" s="32"/>
     </row>
     <row r="192" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="24"/>
       <c r="C192" s="24"/>
-      <c r="D192" s="27"/>
+      <c r="D192" s="35"/>
       <c r="E192" s="24"/>
       <c r="F192"/>
-      <c r="G192" s="33"/>
+      <c r="G192" s="32"/>
     </row>
     <row r="193" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27">
@@ -5167,14 +5293,14 @@
       <c r="C193" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D193" s="27">
+      <c r="D193" s="35">
         <v>146717</v>
       </c>
       <c r="E193" s="24" t="s">
         <v>132</v>
       </c>
       <c r="F193"/>
-      <c r="G193" s="33"/>
+      <c r="G193" s="32"/>
     </row>
     <row r="194" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
@@ -5182,14 +5308,14 @@
       <c r="C194" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D194" s="27">
+      <c r="D194" s="35">
         <v>146716</v>
       </c>
       <c r="E194" s="24" t="s">
         <v>110</v>
       </c>
       <c r="F194"/>
-      <c r="G194" s="33"/>
+      <c r="G194" s="32"/>
     </row>
     <row r="195" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
@@ -5197,23 +5323,23 @@
       <c r="C195" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D195" s="27">
+      <c r="D195" s="35">
         <v>146718</v>
       </c>
       <c r="E195" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F195"/>
-      <c r="G195" s="33"/>
+      <c r="G195" s="32"/>
     </row>
     <row r="196" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="24"/>
       <c r="C196" s="24"/>
-      <c r="D196" s="27"/>
+      <c r="D196" s="35"/>
       <c r="E196" s="24"/>
       <c r="F196"/>
-      <c r="G196" s="33"/>
+      <c r="G196" s="32"/>
     </row>
     <row r="197" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27">
@@ -5225,14 +5351,14 @@
       <c r="C197" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D197" s="27">
+      <c r="D197" s="35">
         <v>146719</v>
       </c>
       <c r="E197" s="24" t="s">
         <v>133</v>
       </c>
       <c r="F197"/>
-      <c r="G197" s="33"/>
+      <c r="G197" s="32"/>
     </row>
     <row r="198" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
@@ -5240,14 +5366,14 @@
       <c r="C198" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D198" s="27">
+      <c r="D198" s="35">
         <v>146718</v>
       </c>
       <c r="E198" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F198"/>
-      <c r="G198" s="33"/>
+      <c r="G198" s="32"/>
     </row>
     <row r="199" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
@@ -5255,22 +5381,22 @@
       <c r="C199" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D199" s="27">
+      <c r="D199" s="35">
         <v>146720</v>
       </c>
       <c r="E199" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F199"/>
-      <c r="G199" s="33"/>
+      <c r="G199" s="32"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="24"/>
       <c r="C200" s="24"/>
-      <c r="D200" s="27"/>
+      <c r="D200" s="35"/>
       <c r="E200" s="24"/>
-      <c r="G200" s="34"/>
+      <c r="G200" s="33"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="27">
@@ -5282,11 +5408,11 @@
       <c r="C201" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D201" s="27">
+      <c r="D201" s="35">
         <v>297070</v>
       </c>
       <c r="E201" s="24"/>
-      <c r="G201" s="34"/>
+      <c r="G201" s="33"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
@@ -5294,11 +5420,11 @@
       <c r="C202" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D202" s="27">
-        <v>59604</v>
+      <c r="D202" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="E202" s="24"/>
-      <c r="G202" s="34"/>
+      <c r="G202" s="33"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
@@ -5306,11 +5432,11 @@
       <c r="C203" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D203" s="27">
-        <v>59595</v>
+      <c r="D203" s="35" t="s">
+        <v>356</v>
       </c>
       <c r="E203" s="24"/>
-      <c r="G203" s="34"/>
+      <c r="G203" s="33"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
@@ -5318,11 +5444,11 @@
       <c r="C204" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D204" s="27">
+      <c r="D204" s="35">
         <v>288891</v>
       </c>
       <c r="E204" s="24"/>
-      <c r="G204" s="34"/>
+      <c r="G204" s="33"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
@@ -5330,11 +5456,11 @@
       <c r="C205" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D205" s="27">
+      <c r="D205" s="35">
         <v>202852</v>
       </c>
       <c r="E205" s="24"/>
-      <c r="G205" s="34"/>
+      <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
@@ -5342,11 +5468,11 @@
       <c r="C206" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D206" s="27">
+      <c r="D206" s="35">
         <v>158597</v>
       </c>
       <c r="E206" s="24"/>
-      <c r="G206" s="34"/>
+      <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
@@ -5354,11 +5480,11 @@
       <c r="C207" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D207" s="27">
+      <c r="D207" s="35">
         <v>170094</v>
       </c>
       <c r="E207" s="24"/>
-      <c r="G207" s="34"/>
+      <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
@@ -5366,11 +5492,11 @@
       <c r="C208" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D208" s="27">
+      <c r="D208" s="35">
         <v>253267</v>
       </c>
       <c r="E208" s="24"/>
-      <c r="G208" s="34"/>
+      <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
@@ -5378,11 +5504,11 @@
       <c r="C209" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D209" s="27">
+      <c r="D209" s="35">
         <v>148145</v>
       </c>
       <c r="E209" s="24"/>
-      <c r="G209" s="34"/>
+      <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
@@ -5390,11 +5516,11 @@
       <c r="C210" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D210" s="27">
-        <v>55929</v>
+      <c r="D210" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="E210" s="24"/>
-      <c r="G210" s="34"/>
+      <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
@@ -5402,11 +5528,11 @@
       <c r="C211" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D211" s="27">
+      <c r="D211" s="35">
         <v>164337</v>
       </c>
       <c r="E211" s="24"/>
-      <c r="G211" s="34"/>
+      <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
@@ -5414,11 +5540,11 @@
       <c r="C212" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D212" s="27">
+      <c r="D212" s="35">
         <v>202851</v>
       </c>
       <c r="E212" s="24"/>
-      <c r="G212" s="34"/>
+      <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
@@ -5426,11 +5552,11 @@
       <c r="C213" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D213" s="27">
+      <c r="D213" s="35">
         <v>243568</v>
       </c>
       <c r="E213" s="24"/>
-      <c r="G213" s="34"/>
+      <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
@@ -5438,13 +5564,13 @@
       <c r="C214" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D214" s="27">
+      <c r="D214" s="35">
         <v>267586</v>
       </c>
       <c r="E214" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G214" s="34"/>
+      <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
@@ -5452,21 +5578,21 @@
       <c r="C215" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D215" s="27">
+      <c r="D215" s="35">
         <v>301394</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G215" s="34"/>
+      <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="24"/>
       <c r="C216" s="24"/>
-      <c r="D216" s="27"/>
+      <c r="D216" s="35"/>
       <c r="E216" s="24"/>
-      <c r="G216" s="34"/>
+      <c r="G216" s="33"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="27">
@@ -5478,11 +5604,11 @@
       <c r="C217" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D217" s="27">
+      <c r="D217" s="35">
         <v>297071</v>
       </c>
       <c r="E217" s="24"/>
-      <c r="G217" s="34"/>
+      <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
@@ -5490,11 +5616,11 @@
       <c r="C218" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D218" s="27">
-        <v>14051</v>
+      <c r="D218" s="35" t="s">
+        <v>358</v>
       </c>
       <c r="E218" s="24"/>
-      <c r="G218" s="34"/>
+      <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
@@ -5502,19 +5628,19 @@
       <c r="C219" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D219" s="27">
-        <v>14039</v>
+      <c r="D219" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="E219" s="24"/>
-      <c r="G219" s="34"/>
+      <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="24"/>
       <c r="C220" s="24"/>
-      <c r="D220" s="27"/>
+      <c r="D220" s="35"/>
       <c r="E220" s="24"/>
-      <c r="G220" s="34"/>
+      <c r="G220" s="33"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="27">
@@ -5526,11 +5652,11 @@
       <c r="C221" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D221" s="27">
+      <c r="D221" s="35">
         <v>297066</v>
       </c>
       <c r="E221" s="24"/>
-      <c r="G221" s="34"/>
+      <c r="G221" s="33"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
@@ -5538,11 +5664,11 @@
       <c r="C222" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D222" s="27">
+      <c r="D222" s="35">
         <v>164487</v>
       </c>
       <c r="E222" s="24"/>
-      <c r="G222" s="34"/>
+      <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
@@ -5550,19 +5676,19 @@
       <c r="C223" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D223" s="27">
+      <c r="D223" s="35">
         <v>252400</v>
       </c>
       <c r="E223" s="24"/>
-      <c r="G223" s="34"/>
+      <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
-      <c r="D224" s="27"/>
+      <c r="D224" s="35"/>
       <c r="E224" s="24"/>
-      <c r="G224" s="34"/>
+      <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="27">
@@ -5574,11 +5700,11 @@
       <c r="C225" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D225" s="27">
+      <c r="D225" s="35">
         <v>297067</v>
       </c>
       <c r="E225" s="24"/>
-      <c r="G225" s="34"/>
+      <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
@@ -5586,11 +5712,11 @@
       <c r="C226" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D226" s="27">
+      <c r="D226" s="35">
         <v>164113</v>
       </c>
       <c r="E226" s="24"/>
-      <c r="G226" s="34"/>
+      <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
@@ -5598,11 +5724,11 @@
       <c r="C227" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D227" s="27">
+      <c r="D227" s="35">
         <v>255462</v>
       </c>
       <c r="E227" s="24"/>
-      <c r="G227" s="34"/>
+      <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
@@ -5610,11 +5736,11 @@
       <c r="C228" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D228" s="27">
-        <v>14097</v>
+      <c r="D228" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="E228" s="24"/>
-      <c r="G228" s="34"/>
+      <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
@@ -5622,11 +5748,11 @@
       <c r="C229" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D229" s="27">
-        <v>14053</v>
+      <c r="D229" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="E229" s="24"/>
-      <c r="G229" s="34"/>
+      <c r="G229" s="33"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
@@ -5634,19 +5760,19 @@
       <c r="C230" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D230" s="27">
-        <v>14041</v>
+      <c r="D230" s="35" t="s">
+        <v>362</v>
       </c>
       <c r="E230" s="24"/>
-      <c r="G230" s="34"/>
+      <c r="G230" s="33"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
-      <c r="D231" s="27"/>
+      <c r="D231" s="35"/>
       <c r="E231" s="24"/>
-      <c r="G231" s="34"/>
+      <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="27">
@@ -5658,11 +5784,11 @@
       <c r="C232" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D232" s="27">
+      <c r="D232" s="35">
         <v>297072</v>
       </c>
       <c r="E232" s="24"/>
-      <c r="G232" s="34"/>
+      <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
@@ -5670,11 +5796,11 @@
       <c r="C233" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D233" s="27">
+      <c r="D233" s="35">
         <v>256477</v>
       </c>
       <c r="E233" s="24"/>
-      <c r="G233" s="34"/>
+      <c r="G233" s="33"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
@@ -5682,11 +5808,11 @@
       <c r="C234" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D234" s="27">
+      <c r="D234" s="35">
         <v>314370</v>
       </c>
       <c r="E234" s="24"/>
-      <c r="G234" s="34"/>
+      <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
@@ -5694,19 +5820,19 @@
       <c r="C235" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D235" s="27">
+      <c r="D235" s="35">
         <v>196439</v>
       </c>
       <c r="E235" s="24"/>
-      <c r="G235" s="34"/>
+      <c r="G235" s="33"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
-      <c r="D236" s="27"/>
+      <c r="D236" s="35"/>
       <c r="E236" s="24"/>
-      <c r="G236" s="34"/>
+      <c r="G236" s="33"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="27">
@@ -5718,11 +5844,11 @@
       <c r="C237" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D237" s="27">
+      <c r="D237" s="35">
         <v>297068</v>
       </c>
       <c r="E237" s="24"/>
-      <c r="G237" s="34"/>
+      <c r="G237" s="33"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
@@ -5730,11 +5856,11 @@
       <c r="C238" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D238" s="27">
+      <c r="D238" s="35">
         <v>167333</v>
       </c>
       <c r="E238" s="24"/>
-      <c r="G238" s="34"/>
+      <c r="G238" s="33"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
@@ -5742,19 +5868,19 @@
       <c r="C239" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D239" s="27">
-        <v>40114</v>
+      <c r="D239" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="E239" s="24"/>
-      <c r="G239" s="34"/>
+      <c r="G239" s="33"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="24"/>
       <c r="C240" s="24"/>
-      <c r="D240" s="27"/>
+      <c r="D240" s="35"/>
       <c r="E240" s="24"/>
-      <c r="G240" s="34"/>
+      <c r="G240" s="33"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="27">
@@ -5766,11 +5892,11 @@
       <c r="C241" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D241" s="27">
+      <c r="D241" s="35">
         <v>297073</v>
       </c>
       <c r="E241" s="24"/>
-      <c r="G241" s="34"/>
+      <c r="G241" s="33"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
@@ -5778,11 +5904,11 @@
       <c r="C242" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D242" s="27">
-        <v>48622</v>
+      <c r="D242" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="E242" s="24"/>
-      <c r="G242" s="34"/>
+      <c r="G242" s="33"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
@@ -5790,11 +5916,11 @@
       <c r="C243" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D243" s="27">
-        <v>92452</v>
+      <c r="D243" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="E243" s="24"/>
-      <c r="G243" s="34"/>
+      <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
@@ -5802,11 +5928,11 @@
       <c r="C244" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D244" s="27">
+      <c r="D244" s="35">
         <v>287281</v>
       </c>
       <c r="E244" s="24"/>
-      <c r="G244" s="34"/>
+      <c r="G244" s="33"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
@@ -5814,11 +5940,11 @@
       <c r="C245" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D245" s="27">
-        <v>14098</v>
+      <c r="D245" s="35" t="s">
+        <v>366</v>
       </c>
       <c r="E245" s="24"/>
-      <c r="G245" s="34"/>
+      <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
@@ -5826,11 +5952,11 @@
       <c r="C246" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D246" s="27">
-        <v>14054</v>
+      <c r="D246" s="35" t="s">
+        <v>367</v>
       </c>
       <c r="E246" s="24"/>
-      <c r="G246" s="34"/>
+      <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
@@ -5838,11 +5964,11 @@
       <c r="C247" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D247" s="27">
-        <v>14042</v>
+      <c r="D247" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="E247" s="24"/>
-      <c r="G247" s="34"/>
+      <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
@@ -5850,11 +5976,11 @@
       <c r="C248" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D248" s="27">
-        <v>87880</v>
+      <c r="D248" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="E248" s="24"/>
-      <c r="G248" s="34"/>
+      <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
@@ -5862,11 +5988,11 @@
       <c r="C249" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D249" s="27">
+      <c r="D249" s="35">
         <v>255521</v>
       </c>
       <c r="E249" s="24"/>
-      <c r="G249" s="34"/>
+      <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
@@ -5874,11 +6000,11 @@
       <c r="C250" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D250" s="27">
+      <c r="D250" s="35">
         <v>146219</v>
       </c>
       <c r="E250" s="24"/>
-      <c r="G250" s="34"/>
+      <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
@@ -5886,11 +6012,11 @@
       <c r="C251" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D251" s="27">
+      <c r="D251" s="35">
         <v>160365</v>
       </c>
       <c r="E251" s="24"/>
-      <c r="G251" s="34"/>
+      <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
@@ -5898,19 +6024,19 @@
       <c r="C252" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D252" s="27">
+      <c r="D252" s="35">
         <v>314371</v>
       </c>
       <c r="E252" s="24"/>
-      <c r="G252" s="34"/>
+      <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
-      <c r="D253" s="27"/>
+      <c r="D253" s="35"/>
       <c r="E253" s="24"/>
-      <c r="G253" s="34"/>
+      <c r="G253" s="33"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="27">
@@ -5922,11 +6048,11 @@
       <c r="C254" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D254" s="27">
+      <c r="D254" s="35">
         <v>297069</v>
       </c>
       <c r="E254" s="24"/>
-      <c r="G254" s="34"/>
+      <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
@@ -5934,11 +6060,11 @@
       <c r="C255" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D255" s="27">
+      <c r="D255" s="35">
         <v>170095</v>
       </c>
       <c r="E255" s="24"/>
-      <c r="G255" s="34"/>
+      <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
@@ -5946,19 +6072,19 @@
       <c r="C256" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D256" s="27">
-        <v>14067</v>
+      <c r="D256" s="35" t="s">
+        <v>370</v>
       </c>
       <c r="E256" s="24"/>
-      <c r="G256" s="34"/>
+      <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
-      <c r="D257" s="27"/>
+      <c r="D257" s="35"/>
       <c r="E257" s="24"/>
-      <c r="G257" s="34"/>
+      <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="27">
@@ -5970,11 +6096,11 @@
       <c r="C258" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D258" s="27">
+      <c r="D258" s="35">
         <v>297074</v>
       </c>
       <c r="E258" s="24"/>
-      <c r="G258" s="34"/>
+      <c r="G258" s="33"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
@@ -5982,11 +6108,11 @@
       <c r="C259" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D259" s="27">
-        <v>39848</v>
+      <c r="D259" s="35" t="s">
+        <v>371</v>
       </c>
       <c r="E259" s="24"/>
-      <c r="G259" s="34"/>
+      <c r="G259" s="33"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
@@ -5994,11 +6120,11 @@
       <c r="C260" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D260" s="27">
-        <v>14099</v>
+      <c r="D260" s="35" t="s">
+        <v>372</v>
       </c>
       <c r="E260" s="24"/>
-      <c r="G260" s="34"/>
+      <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
@@ -6006,11 +6132,11 @@
       <c r="C261" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D261" s="27">
-        <v>14055</v>
+      <c r="D261" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="E261" s="24"/>
-      <c r="G261" s="34"/>
+      <c r="G261" s="33"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
@@ -6018,11 +6144,11 @@
       <c r="C262" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D262" s="27">
-        <v>14043</v>
+      <c r="D262" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="E262" s="24"/>
-      <c r="G262" s="34"/>
+      <c r="G262" s="33"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
@@ -6030,11 +6156,11 @@
       <c r="C263" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D263" s="27">
+      <c r="D263" s="35">
         <v>202857</v>
       </c>
       <c r="E263" s="24"/>
-      <c r="G263" s="34"/>
+      <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
@@ -6042,11 +6168,11 @@
       <c r="C264" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D264" s="27">
+      <c r="D264" s="35">
         <v>146219</v>
       </c>
       <c r="E264" s="24"/>
-      <c r="G264" s="34"/>
+      <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
@@ -6054,19 +6180,19 @@
       <c r="C265" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D265" s="27">
+      <c r="D265" s="35">
         <v>314372</v>
       </c>
       <c r="E265" s="24"/>
-      <c r="G265" s="34"/>
+      <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
-      <c r="D266" s="27"/>
+      <c r="D266" s="35"/>
       <c r="E266" s="24"/>
-      <c r="G266" s="34"/>
+      <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="27">
@@ -6078,11 +6204,11 @@
       <c r="C267" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D267" s="27">
+      <c r="D267" s="35">
         <v>297075</v>
       </c>
       <c r="E267" s="24"/>
-      <c r="G267" s="34"/>
+      <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
@@ -6090,11 +6216,11 @@
       <c r="C268" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D268" s="27">
+      <c r="D268" s="35">
         <v>314373</v>
       </c>
       <c r="E268" s="24"/>
-      <c r="G268" s="34"/>
+      <c r="G268" s="33"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
@@ -6102,19 +6228,19 @@
       <c r="C269" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D269" s="27">
+      <c r="D269" s="35">
         <v>170096</v>
       </c>
       <c r="E269" s="24"/>
-      <c r="G269" s="34"/>
+      <c r="G269" s="33"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
-      <c r="D270" s="27"/>
+      <c r="D270" s="35"/>
       <c r="E270" s="24"/>
-      <c r="G270" s="34"/>
+      <c r="G270" s="33"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="22">
@@ -6126,13 +6252,13 @@
       <c r="C271" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D271" s="28">
+      <c r="D271" s="36">
         <v>297077</v>
       </c>
       <c r="E271" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G271" s="34"/>
+      <c r="G271" s="33"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="22"/>
@@ -6140,13 +6266,13 @@
       <c r="C272" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D272" s="28">
+      <c r="D272" s="36">
         <v>297091</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G272" s="34"/>
+      <c r="G272" s="33"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
@@ -6154,13 +6280,13 @@
       <c r="C273" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D273" s="28">
+      <c r="D273" s="36">
         <v>297095</v>
       </c>
       <c r="E273" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G273" s="34"/>
+      <c r="G273" s="33"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="22"/>
@@ -6168,21 +6294,21 @@
       <c r="C274" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D274" s="28">
+      <c r="D274" s="36">
         <v>243581</v>
       </c>
       <c r="E274" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G274" s="34"/>
+      <c r="G274" s="33"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
       <c r="B275" s="25"/>
       <c r="C275" s="25"/>
-      <c r="D275" s="28"/>
+      <c r="D275" s="36"/>
       <c r="E275" s="25"/>
-      <c r="G275" s="34"/>
+      <c r="G275" s="33"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="22">
@@ -6194,13 +6320,13 @@
       <c r="C276" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D276" s="28">
+      <c r="D276" s="36">
         <v>297079</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G276" s="34"/>
+      <c r="G276" s="33"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="22"/>
@@ -6208,13 +6334,13 @@
       <c r="C277" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D277" s="28">
+      <c r="D277" s="36">
         <v>297091</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G277" s="34"/>
+      <c r="G277" s="33"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="22"/>
@@ -6222,21 +6348,21 @@
       <c r="C278" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D278" s="28">
+      <c r="D278" s="36">
         <v>243582</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="G278" s="34"/>
+      <c r="G278" s="33"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="22"/>
       <c r="B279" s="25"/>
       <c r="C279" s="25"/>
-      <c r="D279" s="28"/>
+      <c r="D279" s="36"/>
       <c r="E279" s="25"/>
-      <c r="G279" s="34"/>
+      <c r="G279" s="33"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="22">
@@ -6248,13 +6374,13 @@
       <c r="C280" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D280" s="28">
+      <c r="D280" s="36">
         <v>297081</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G280" s="34"/>
+      <c r="G280" s="33"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="22"/>
@@ -6262,13 +6388,13 @@
       <c r="C281" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D281" s="28">
+      <c r="D281" s="36">
         <v>297083</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G281" s="34"/>
+      <c r="G281" s="33"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="22"/>
@@ -6276,13 +6402,13 @@
       <c r="C282" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D282" s="28">
+      <c r="D282" s="36">
         <v>297093</v>
       </c>
       <c r="E282" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G282" s="34"/>
+      <c r="G282" s="33"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="22"/>
@@ -6290,13 +6416,13 @@
       <c r="C283" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D283" s="28">
+      <c r="D283" s="36">
         <v>297087</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="G283" s="34"/>
+      <c r="G283" s="33"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="22"/>
@@ -6304,21 +6430,21 @@
       <c r="C284" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D284" s="28">
+      <c r="D284" s="36">
         <v>243583</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="G284" s="34"/>
+      <c r="G284" s="33"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="22"/>
       <c r="B285" s="25"/>
       <c r="C285" s="25"/>
-      <c r="D285" s="28"/>
+      <c r="D285" s="36"/>
       <c r="E285" s="25"/>
-      <c r="G285" s="34"/>
+      <c r="G285" s="33"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="22">
@@ -6330,13 +6456,13 @@
       <c r="C286" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D286" s="28">
+      <c r="D286" s="36">
         <v>297083</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G286" s="34"/>
+      <c r="G286" s="33"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="22"/>
@@ -6344,13 +6470,13 @@
       <c r="C287" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D287" s="28">
+      <c r="D287" s="36">
         <v>297081</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G287" s="34"/>
+      <c r="G287" s="33"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="22"/>
@@ -6358,13 +6484,13 @@
       <c r="C288" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D288" s="28">
+      <c r="D288" s="36">
         <v>297093</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G288" s="34"/>
+      <c r="G288" s="33"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="22"/>
@@ -6372,21 +6498,21 @@
       <c r="C289" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D289" s="28">
+      <c r="D289" s="36">
         <v>297087</v>
       </c>
       <c r="E289" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="G289" s="34"/>
+      <c r="G289" s="33"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="22"/>
       <c r="B290" s="25"/>
       <c r="C290" s="25"/>
-      <c r="D290" s="28"/>
+      <c r="D290" s="36"/>
       <c r="E290" s="25"/>
-      <c r="G290" s="34"/>
+      <c r="G290" s="33"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="22">
@@ -6398,13 +6524,13 @@
       <c r="C291" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D291" s="28">
+      <c r="D291" s="36">
         <v>297085</v>
       </c>
       <c r="E291" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G291" s="34"/>
+      <c r="G291" s="33"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="22"/>
@@ -6412,21 +6538,21 @@
       <c r="C292" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D292" s="28">
+      <c r="D292" s="36">
         <v>297089</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G292" s="34"/>
+      <c r="G292" s="33"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="22"/>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
-      <c r="D293" s="28"/>
+      <c r="D293" s="36"/>
       <c r="E293" s="25"/>
-      <c r="G293" s="34"/>
+      <c r="G293" s="33"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="22">
@@ -6438,13 +6564,13 @@
       <c r="C294" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D294" s="28">
+      <c r="D294" s="36">
         <v>297091</v>
       </c>
       <c r="E294" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G294" s="34"/>
+      <c r="G294" s="33"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="22"/>
@@ -6452,13 +6578,13 @@
       <c r="C295" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D295" s="28">
+      <c r="D295" s="36">
         <v>297077</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G295" s="34"/>
+      <c r="G295" s="33"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="22"/>
@@ -6466,21 +6592,21 @@
       <c r="C296" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D296" s="28">
+      <c r="D296" s="36">
         <v>297095</v>
       </c>
       <c r="E296" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G296" s="34"/>
+      <c r="G296" s="33"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="22"/>
       <c r="B297" s="25"/>
       <c r="C297" s="25"/>
-      <c r="D297" s="28"/>
+      <c r="D297" s="36"/>
       <c r="E297" s="25"/>
-      <c r="G297" s="34"/>
+      <c r="G297" s="33"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="22">
@@ -6492,13 +6618,13 @@
       <c r="C298" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D298" s="28">
+      <c r="D298" s="36">
         <v>297093</v>
       </c>
       <c r="E298" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G298" s="34"/>
+      <c r="G298" s="33"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="22"/>
@@ -6506,13 +6632,13 @@
       <c r="C299" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D299" s="28">
+      <c r="D299" s="36">
         <v>297081</v>
       </c>
       <c r="E299" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G299" s="34"/>
+      <c r="G299" s="33"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="22"/>
@@ -6520,13 +6646,13 @@
       <c r="C300" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D300" s="28">
+      <c r="D300" s="36">
         <v>297083</v>
       </c>
       <c r="E300" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G300" s="34"/>
+      <c r="G300" s="33"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="22"/>
@@ -6534,21 +6660,21 @@
       <c r="C301" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D301" s="28">
+      <c r="D301" s="36">
         <v>297087</v>
       </c>
       <c r="E301" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="G301" s="34"/>
+      <c r="G301" s="33"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="22"/>
       <c r="B302" s="25"/>
       <c r="C302" s="25"/>
-      <c r="D302" s="28"/>
+      <c r="D302" s="36"/>
       <c r="E302" s="25"/>
-      <c r="G302" s="34"/>
+      <c r="G302" s="33"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="22">
@@ -6560,14 +6686,14 @@
       <c r="C303" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D303" s="28">
+      <c r="D303" s="36">
         <v>297087</v>
       </c>
       <c r="E303" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F303" s="30"/>
-      <c r="G303" s="34"/>
+      <c r="F303" s="29"/>
+      <c r="G303" s="33"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="22"/>
@@ -6575,13 +6701,13 @@
       <c r="C304" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D304" s="28">
+      <c r="D304" s="36">
         <v>297081</v>
       </c>
       <c r="E304" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G304" s="34"/>
+      <c r="G304" s="33"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="22"/>
@@ -6589,13 +6715,13 @@
       <c r="C305" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D305" s="28">
+      <c r="D305" s="36">
         <v>297083</v>
       </c>
       <c r="E305" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G305" s="34"/>
+      <c r="G305" s="33"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="22"/>
@@ -6603,21 +6729,21 @@
       <c r="C306" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D306" s="28">
+      <c r="D306" s="36">
         <v>297093</v>
       </c>
       <c r="E306" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G306" s="34"/>
+      <c r="G306" s="33"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="22"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25"/>
-      <c r="D307" s="28"/>
+      <c r="D307" s="36"/>
       <c r="E307" s="25"/>
-      <c r="G307" s="34"/>
+      <c r="G307" s="33"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="22">
@@ -6629,13 +6755,13 @@
       <c r="C308" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D308" s="28">
+      <c r="D308" s="36">
         <v>297089</v>
       </c>
       <c r="E308" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G308" s="34"/>
+      <c r="G308" s="33"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="22"/>
@@ -6643,21 +6769,21 @@
       <c r="C309" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D309" s="28">
+      <c r="D309" s="36">
         <v>297085</v>
       </c>
       <c r="E309" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G309" s="34"/>
+      <c r="G309" s="33"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="22"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25"/>
-      <c r="D310" s="28"/>
+      <c r="D310" s="36"/>
       <c r="E310" s="25"/>
-      <c r="G310" s="34"/>
+      <c r="G310" s="33"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="22">
@@ -6669,13 +6795,13 @@
       <c r="C311" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D311" s="28">
+      <c r="D311" s="36">
         <v>297095</v>
       </c>
       <c r="E311" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G311" s="34"/>
+      <c r="G311" s="33"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="22"/>
@@ -6683,13 +6809,13 @@
       <c r="C312" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D312" s="28">
+      <c r="D312" s="36">
         <v>297077</v>
       </c>
       <c r="E312" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G312" s="34"/>
+      <c r="G312" s="33"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="22"/>
@@ -6697,195 +6823,195 @@
       <c r="C313" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D313" s="28">
+      <c r="D313" s="36">
         <v>297091</v>
       </c>
       <c r="E313" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G313" s="34"/>
+      <c r="G313" s="33"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" s="31"/>
-      <c r="B314" s="32"/>
-      <c r="C314" s="32"/>
-      <c r="D314" s="31"/>
-      <c r="E314" s="32"/>
+      <c r="A314" s="30"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="37"/>
+      <c r="E314" s="31"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" s="31"/>
-      <c r="B315" s="32"/>
-      <c r="C315" s="32"/>
-      <c r="D315" s="31"/>
-      <c r="E315" s="32"/>
+      <c r="A315" s="30"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
+      <c r="D315" s="37"/>
+      <c r="E315" s="31"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A316" s="31"/>
-      <c r="B316" s="32"/>
-      <c r="C316" s="32"/>
-      <c r="D316" s="31"/>
-      <c r="E316" s="32"/>
+      <c r="A316" s="30"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="31"/>
+      <c r="D316" s="37"/>
+      <c r="E316" s="31"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" s="31"/>
-      <c r="B317" s="32"/>
-      <c r="C317" s="32"/>
-      <c r="D317" s="31"/>
-      <c r="E317" s="32"/>
+      <c r="A317" s="30"/>
+      <c r="B317" s="31"/>
+      <c r="C317" s="31"/>
+      <c r="D317" s="37"/>
+      <c r="E317" s="31"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A318" s="31"/>
-      <c r="B318" s="32"/>
-      <c r="C318" s="32"/>
-      <c r="D318" s="31"/>
-      <c r="E318" s="32"/>
+      <c r="A318" s="30"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="31"/>
+      <c r="D318" s="37"/>
+      <c r="E318" s="31"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A319" s="31"/>
-      <c r="B319" s="32"/>
-      <c r="C319" s="32"/>
-      <c r="D319" s="31"/>
-      <c r="E319" s="32"/>
+      <c r="A319" s="30"/>
+      <c r="B319" s="31"/>
+      <c r="C319" s="31"/>
+      <c r="D319" s="37"/>
+      <c r="E319" s="31"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" s="31"/>
-      <c r="B320" s="32"/>
-      <c r="C320" s="32"/>
-      <c r="D320" s="31"/>
-      <c r="E320" s="32"/>
+      <c r="A320" s="30"/>
+      <c r="B320" s="31"/>
+      <c r="C320" s="31"/>
+      <c r="D320" s="37"/>
+      <c r="E320" s="31"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="31"/>
-      <c r="B321" s="32"/>
-      <c r="C321" s="32"/>
-      <c r="D321" s="31"/>
-      <c r="E321" s="32"/>
+      <c r="A321" s="30"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="31"/>
+      <c r="D321" s="37"/>
+      <c r="E321" s="31"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="31"/>
-      <c r="B322" s="32"/>
-      <c r="C322" s="32"/>
-      <c r="D322" s="31"/>
-      <c r="E322" s="32"/>
+      <c r="A322" s="30"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="31"/>
+      <c r="D322" s="37"/>
+      <c r="E322" s="31"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="31"/>
-      <c r="B323" s="32"/>
-      <c r="C323" s="32"/>
-      <c r="D323" s="31"/>
-      <c r="E323" s="32"/>
+      <c r="A323" s="30"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="31"/>
+      <c r="D323" s="37"/>
+      <c r="E323" s="31"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="31"/>
-      <c r="B324" s="32"/>
-      <c r="C324" s="32"/>
-      <c r="D324" s="31"/>
-      <c r="E324" s="32"/>
+      <c r="A324" s="30"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="31"/>
+      <c r="D324" s="37"/>
+      <c r="E324" s="31"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="31"/>
-      <c r="B325" s="32"/>
-      <c r="C325" s="32"/>
-      <c r="D325" s="31"/>
-      <c r="E325" s="32"/>
+      <c r="A325" s="30"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="31"/>
+      <c r="D325" s="37"/>
+      <c r="E325" s="31"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="31"/>
-      <c r="B326" s="32"/>
-      <c r="C326" s="32"/>
-      <c r="D326" s="31"/>
-      <c r="E326" s="32"/>
+      <c r="A326" s="30"/>
+      <c r="B326" s="31"/>
+      <c r="C326" s="31"/>
+      <c r="D326" s="37"/>
+      <c r="E326" s="31"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="31"/>
-      <c r="B327" s="32"/>
-      <c r="C327" s="32"/>
-      <c r="D327" s="31"/>
-      <c r="E327" s="32"/>
+      <c r="A327" s="30"/>
+      <c r="B327" s="31"/>
+      <c r="C327" s="31"/>
+      <c r="D327" s="37"/>
+      <c r="E327" s="31"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="31"/>
-      <c r="B328" s="32"/>
-      <c r="C328" s="32"/>
-      <c r="D328" s="31"/>
-      <c r="E328" s="32"/>
+      <c r="A328" s="30"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="31"/>
+      <c r="D328" s="37"/>
+      <c r="E328" s="31"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="31"/>
-      <c r="B329" s="32"/>
-      <c r="C329" s="32"/>
-      <c r="D329" s="31"/>
-      <c r="E329" s="32"/>
+      <c r="A329" s="30"/>
+      <c r="B329" s="31"/>
+      <c r="C329" s="31"/>
+      <c r="D329" s="37"/>
+      <c r="E329" s="31"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="31"/>
-      <c r="B330" s="32"/>
-      <c r="C330" s="32"/>
-      <c r="D330" s="31"/>
-      <c r="E330" s="32"/>
+      <c r="A330" s="30"/>
+      <c r="B330" s="31"/>
+      <c r="C330" s="31"/>
+      <c r="D330" s="37"/>
+      <c r="E330" s="31"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="31"/>
-      <c r="B331" s="32"/>
-      <c r="C331" s="32"/>
-      <c r="D331" s="31"/>
-      <c r="E331" s="32"/>
+      <c r="A331" s="30"/>
+      <c r="B331" s="31"/>
+      <c r="C331" s="31"/>
+      <c r="D331" s="37"/>
+      <c r="E331" s="31"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="31"/>
-      <c r="B332" s="32"/>
-      <c r="C332" s="32"/>
-      <c r="D332" s="31"/>
-      <c r="E332" s="32"/>
+      <c r="A332" s="30"/>
+      <c r="B332" s="31"/>
+      <c r="C332" s="31"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="31"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="31"/>
-      <c r="B333" s="32"/>
-      <c r="C333" s="32"/>
-      <c r="D333" s="31"/>
-      <c r="E333" s="32"/>
+      <c r="A333" s="30"/>
+      <c r="B333" s="31"/>
+      <c r="C333" s="31"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="31"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="31"/>
-      <c r="B334" s="32"/>
-      <c r="C334" s="32"/>
-      <c r="D334" s="31"/>
-      <c r="E334" s="32"/>
+      <c r="A334" s="30"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="31"/>
+      <c r="D334" s="37"/>
+      <c r="E334" s="31"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="31"/>
-      <c r="B335" s="32"/>
-      <c r="C335" s="32"/>
-      <c r="D335" s="31"/>
-      <c r="E335" s="32"/>
+      <c r="A335" s="30"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="31"/>
+      <c r="D335" s="37"/>
+      <c r="E335" s="31"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="31"/>
-      <c r="B336" s="32"/>
-      <c r="C336" s="32"/>
-      <c r="D336" s="31"/>
-      <c r="E336" s="32"/>
+      <c r="A336" s="30"/>
+      <c r="B336" s="31"/>
+      <c r="C336" s="31"/>
+      <c r="D336" s="37"/>
+      <c r="E336" s="31"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="31"/>
-      <c r="B337" s="32"/>
-      <c r="C337" s="32"/>
-      <c r="D337" s="31"/>
-      <c r="E337" s="32"/>
+      <c r="A337" s="30"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="31"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="31"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="31"/>
-      <c r="B338" s="32"/>
-      <c r="C338" s="32"/>
-      <c r="D338" s="31"/>
-      <c r="E338" s="32"/>
+      <c r="A338" s="30"/>
+      <c r="B338" s="31"/>
+      <c r="C338" s="31"/>
+      <c r="D338" s="37"/>
+      <c r="E338" s="31"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="31"/>
-      <c r="B339" s="32"/>
-      <c r="C339" s="32"/>
-      <c r="D339" s="31"/>
-      <c r="E339" s="32"/>
+      <c r="A339" s="30"/>
+      <c r="B339" s="31"/>
+      <c r="C339" s="31"/>
+      <c r="D339" s="37"/>
+      <c r="E339" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7814,15 +7940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002BA34982B4444C438023B389834F9B17" ma:contentTypeVersion="9" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e2df8fe59bdb4ab9a240dfc12adf0a58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a8c52c-6c4f-4875-9b6b-44f384efb174" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58868eaae9f147966810acb3cbbd0f0a" ns2:_="">
     <xsd:import namespace="c1a8c52c-6c4f-4875-9b6b-44f384efb174"/>
@@ -7992,6 +8109,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8003,14 +8129,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A20EAD-865D-4166-9FB1-F068244676A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F01F3790-5702-4FAF-9D93-2C4D6BF29ECE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8024,6 +8142,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A20EAD-865D-4166-9FB1-F068244676A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
